--- a/excel/template.xlsx
+++ b/excel/template.xlsx
@@ -5,29 +5,39 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliasBraun\Documents\GIT\testaal\ods_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliasBraun\Documents\GIT\RCJV-APP\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C231C727-BA1C-4ABE-B940-1EDD33D36B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE0611-C433-43A0-AD82-632E83212D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11175" xr2:uid="{E565644C-E795-49C0-8748-2A8D93B40201}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E565644C-E795-49C0-8748-2A8D93B40201}"/>
   </bookViews>
   <sheets>
     <sheet name="RUN-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Field:</t>
   </si>
   <si>
-    <t>Days</t>
-  </si>
-  <si>
     <t>Teams</t>
   </si>
   <si>
@@ -40,31 +50,19 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SU</t>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -113,16 +113,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC1DB4A9-BE5D-4618-B0B3-79B22EB0F75A}" name="Table1" displayName="Table1" ref="AA1:AA8" totalsRowShown="0">
-  <autoFilter ref="AA1:AA8" xr:uid="{3A41C0EC-87A5-4A98-8BE6-C986E6F7DC49}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A5BD9BFD-4240-430F-BD37-82F78C561EE2}" name="Days"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB077491-458F-4BE5-876D-D54DBC1B9F6C}" name="Table2" displayName="Table2" ref="AC1:AC500" totalsRowShown="0">
   <autoFilter ref="AC1:AC500" xr:uid="{48A302A9-6DE6-439A-A6AD-6F24C983FC16}"/>
   <tableColumns count="1">
@@ -449,83 +439,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9698D1-FDF8-44DC-83AE-AB0147D34CCA}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="AA8" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A202" xr:uid="{6BFDD19D-BE6E-478A-80F4-C0A0FF375EE7}">
-      <formula1>$AA$2:$AA$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:Z204" xr:uid="{9275F22D-F523-466F-BF74-6476370EF8AD}">
       <formula1>$AC$2:$AC$500</formula1>
     </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A100" xr:uid="{F8DDE227-10C8-46E0-95C5-461E48F3DE8E}">
+      <formula1>B1</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>